--- a/payment reminder.xlsx
+++ b/payment reminder.xlsx
@@ -65,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +126,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -170,11 +177,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -190,9 +201,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -676,7 +691,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -885,8 +900,8 @@
       <c r="F8" s="4">
         <v>919827734802</v>
       </c>
-      <c r="G8" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="G8" s="9" t="str">
+        <f>HYPERLINK("https://api.whatsapp.com/send?phone="&amp;F9&amp;"&amp;text="&amp;A8&amp;B8&amp;C8&amp;D8&amp;E8,"send message")</f>
         <v>send message</v>
       </c>
     </row>
